--- a/Model_implementation/Maintenance_tasks.xlsx
+++ b/Model_implementation/Maintenance_tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Python files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\RESEARCH\DISSERTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF4DC18-FC2C-4452-BFEF-6A93F96AA732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387565C0-7DA3-4376-9CAA-C199B600E2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0CCFF692-B015-4D83-90DA-422F8184F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CCFF692-B015-4D83-90DA-422F8184F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="PMT" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>PMT 1</t>
   </si>
   <si>
     <t>PMT 2</t>
+  </si>
+  <si>
+    <t>Manitenance edges</t>
   </si>
   <si>
     <t>End time (min)</t>
@@ -434,25 +437,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C61393C-22A9-4381-B8FD-F0DCCF1FF5C7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -470,7 +473,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -488,7 +491,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -501,42 +504,42 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB6A15E-BF55-4FC7-A7A6-6C43165A417D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -556,24 +559,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
